--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1773E882-1D05-4E0F-AAE4-5D5EB70CC5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307C9F8-E5DB-4D9C-BFDD-F03E1137C105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,16 @@
   </si>
   <si>
     <t>전설 요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSword20</t>
+  </si>
+  <si>
+    <t>SealSword21</t>
+  </si>
+  <si>
+    <t>요물 요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,12 +630,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,6 +1131,52 @@
         <v>90</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307C9F8-E5DB-4D9C-BFDD-F03E1137C105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A34762-80DC-42C3-A726-77CE72D84943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>요물 요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSword22</t>
   </si>
 </sst>
 </file>
@@ -630,12 +633,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1177,6 +1180,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A34762-80DC-42C3-A726-77CE72D84943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA587236-0D3F-4763-BA1F-DBCE74EF1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>SealSword22</t>
+  </si>
+  <si>
+    <t>SealSword23</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1203,6 +1206,29 @@
         <v>93</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
